--- a/ML/Real_Test.xlsx
+++ b/ML/Real_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b0612544\Documents\Projects\Quality\ShinyDashboards\RNC_Dashboard\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5EF914-EDB2-4E31-A62D-9C9E1FDDF6C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E4B485-BA7F-434A-9285-5A80306C4A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Real_Test" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Real_Test!$A$1:$J$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Real_Test!$A$1:$J$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Zone</t>
   </si>
@@ -71,283 +71,139 @@
     <t>Methods</t>
   </si>
   <si>
+    <t>Zone 3.2</t>
+  </si>
+  <si>
+    <t>AGX830</t>
+  </si>
+  <si>
+    <t>SNC</t>
+  </si>
+  <si>
     <t>Zone 3.3</t>
   </si>
   <si>
     <t>AGX950</t>
   </si>
   <si>
-    <t>Zone 4</t>
-  </si>
-  <si>
-    <t>Q321013715-1</t>
-  </si>
-  <si>
-    <t>AGX955</t>
-  </si>
-  <si>
-    <t>G09171051-019</t>
-  </si>
-  <si>
-    <t>HARNESS, AFT FUSE, REAR LHS RAB</t>
-  </si>
-  <si>
-    <t>Q321013716-1</t>
-  </si>
-  <si>
-    <t>AGX965</t>
-  </si>
-  <si>
-    <t>G09181002-003</t>
-  </si>
-  <si>
-    <t>CABLE, COAX, NAV 1 VOR LOC VLB</t>
-  </si>
-  <si>
-    <t>Q321013717-1</t>
-  </si>
-  <si>
-    <t>Q321013718-1</t>
-  </si>
-  <si>
-    <t>G09172051-019-01</t>
-  </si>
-  <si>
-    <t>HARNESS, AFT FUSE, REAR RHS RBB</t>
-  </si>
-  <si>
-    <t>Q321013719-1</t>
-  </si>
-  <si>
-    <t>G09172051-019</t>
-  </si>
-  <si>
-    <t>Q321013719-2</t>
+    <t>JOINT INSTL, STA 1016, REAR FUSE</t>
   </si>
   <si>
     <t>Zone 3.4</t>
   </si>
   <si>
-    <t>Q321013725-1</t>
-  </si>
-  <si>
     <t>AGX952</t>
   </si>
   <si>
-    <t>G05363449-101</t>
-  </si>
-  <si>
-    <t>DOUBLER SIDE PANEL AFT BARREL</t>
-  </si>
-  <si>
-    <t>Q321013727-1</t>
-  </si>
-  <si>
-    <t>G05363449-102</t>
-  </si>
-  <si>
-    <t>DOUBLER, SIDE PANEL, AFT BARREL</t>
-  </si>
-  <si>
-    <t>Q321013727-2</t>
-  </si>
-  <si>
-    <t>G05450503-104</t>
-  </si>
-  <si>
-    <t>SKIN, LWR, CTR BOX, PYLON</t>
-  </si>
-  <si>
-    <t>Q321013728-1</t>
-  </si>
-  <si>
-    <t>Q321013729-1</t>
-  </si>
-  <si>
-    <t>G05363926-102</t>
-  </si>
-  <si>
-    <t>INTERCOSTAL, MOORING, FTG AFT BARREL</t>
-  </si>
-  <si>
-    <t>Q321013729-2</t>
-  </si>
-  <si>
-    <t>G05363926-101</t>
-  </si>
-  <si>
-    <t>INTERCOSTAL, MOORING, FTG, AFT BARREL</t>
-  </si>
-  <si>
-    <t>Zone 2</t>
-  </si>
-  <si>
-    <t>Q321013746-1</t>
-  </si>
-  <si>
-    <t>AGX872</t>
-  </si>
-  <si>
-    <t>G05363100-003</t>
-  </si>
-  <si>
-    <t>BARREL ASSY, REAR FUSELAGE</t>
-  </si>
-  <si>
-    <t>Q321013759-1</t>
-  </si>
-  <si>
-    <t>G05450612-104</t>
-  </si>
-  <si>
-    <t>ANGLE, DRAG, FIXED TE, PYLON</t>
-  </si>
-  <si>
-    <t>Q321013763-1</t>
-  </si>
-  <si>
-    <t>G05530170-001</t>
-  </si>
-  <si>
-    <t>FAIRING INSTL, DORSAL</t>
-  </si>
-  <si>
-    <t>Q321013777-1</t>
-  </si>
-  <si>
-    <t>G05363668-103</t>
-  </si>
-  <si>
-    <t>STRINGER 26, AFT BARREL, LH</t>
-  </si>
-  <si>
-    <t>Zone 5</t>
-  </si>
-  <si>
-    <t>Q321013783-1</t>
-  </si>
-  <si>
-    <t>AGX290</t>
-  </si>
-  <si>
-    <t>G05310750-001-01</t>
-  </si>
-  <si>
-    <t>COCKPIT NOSE ASSY</t>
-  </si>
-  <si>
-    <t>Q321013783-2</t>
-  </si>
-  <si>
-    <t>Q321013783-3</t>
-  </si>
-  <si>
-    <t>Q321013788-1</t>
-  </si>
-  <si>
-    <t>G05450057-013-01</t>
-  </si>
-  <si>
-    <t>TE ASSY, REMOVABLE, PYLON</t>
-  </si>
-  <si>
     <t>Zone 3.1</t>
   </si>
   <si>
-    <t>Q321013791-1</t>
-  </si>
-  <si>
-    <t>EXTENSION</t>
-  </si>
-  <si>
-    <t>AGX802</t>
-  </si>
-  <si>
-    <t>G05372102-003</t>
-  </si>
-  <si>
-    <t>ECS INSTL TRIM AIR PROVISIONS</t>
-  </si>
-  <si>
-    <t>Q321013792-1</t>
-  </si>
-  <si>
-    <t>Q321013793-1</t>
-  </si>
-  <si>
-    <t>Q321013794-1</t>
-  </si>
-  <si>
-    <t>Q321013795-1</t>
-  </si>
-  <si>
-    <t>Q321013796-1</t>
-  </si>
-  <si>
-    <t>Q321013797-1</t>
-  </si>
-  <si>
-    <t>METHODS* REF NCR'S 70084 Q320020458 70094 Q321002173 70104 Q321008388 70085 Q320020457 70095 Q321003029 70105 Q321008492 70086 Q320020450 70096 Q321004114 70106 Q321008493 70087 Q320021389 70097 Q321004361 70107 Q321008494 70088 Q320022034 70098 Q321004464 70108 Q321008495 70089 Q320022566 70099 Q321004465 70109 Q321008496 70090 Q320023339 70100 Q321006249 70110 Q321011394 70091 Q321000359 70101 Q321006464 70111 Q321012127 70092 Q321001209 70102 Q321006465 70112 Q321013286 70093 Q321001496 70103 Q321006466 70113 Q321013286 AT FS 910; STGR 23_`24 LHS; THE HARNESS G09171051_`019, HARNESS, AFT FUSE, REAR LHS RAB. PRESENT THE CONDITION: CONNECTOR J771 IS NOT POSSIBLE TO INSTALL AS PER DRAWING REQUIREMENTS. THE POSITION OF THE CONNECTOR (ANGULARITY) IS DETERMINED BY THE SKIN AND DOESN'T MATCH WITH THE REQUESTED BY DRAWING, THAT CONDITION MAKE NOT POSSIBLE ROUTING THE HARNESS AS PER DRAWING REQUIREMENTS (THE CHANGE OF THE ANGULAR POSITION OF THE CONNECTOR PROVOKE A CHANGE OF THE BACKSHELL CLOCKING ABOUT 35 DEGREES PLUS THE BAPS TOLERANCE) FOR BETTER REFERENCE SEE ATTACHMENTS</t>
-  </si>
-  <si>
-    <t>METHODS* REFERENCE NCR: 70090 Q320023654 70099 Q321004571 70108 Q321004580 70091 Q321000650 70100 Q321004572 70109 Q321004581 70092 Q321001207 70101 Q321004573 70110 Q321011383 70093 Q321001719 70102 Q321004574 70111 Q321012129 70094 Q321002403 70103 Q321004575 70112 Q321012721 70095 Q321003609 70104 Q321004576 70113 Q321013295 70096 Q321004125 70105 Q321004577 70097 Q321004534 70106 Q321004578 70098 Q321004570 70107 Q321004579 LOCATION F.S. 897 STGR 2L _`3L. DUE TO OVERLAP BETWEEN FEEDTHRU B0816131_`XB_`2310 AND CCM INSTALLED ON CABLE, COAX, NAV 1 VOR LOC VLB G09181002_`003. PRODUCTION REMOVED THE CCM OF THE COAXIAL CABLE IN ORDER TO AVOID THE GAP ON FEED THRU'S RUBBER, PREVIOUSLY MARKING THE CCM POSITION WITH SHARPIE NOTES: THIS CONDITION IS DUE TO THE INSTALLATION OF CCM ACCORDING WITH EHR AND DMU. ON PREVIOUS AIRCRAFTS CCM WAS NOT INSTALLED. SEE ATTACH FOR MORE DETAILS</t>
-  </si>
-  <si>
-    <t>METHODS* REFERENCE NCR'S: 70087 Q320022318 70094 Q321002283 70101 Q321006458 70108 Q321008480 70088 Q320022395 70095 Q321003032 70102 Q321006459 70109 Q321008481 70089 Q320022908 70096 Q321004123 70103 Q321006460 70110 Q321011397 70090 Q320023338 70097 Q321004406 70104 Q321008389 70111 Q321012128 70091 Q321000364 70098 Q321004466 70105 Q321008477 70112 Q321012577 70092 Q321001292 70099 Q321004467 70106 Q321008478 70113 Q321013289 70093 Q321001499 70100 Q321006251 70107 Q321008479 AT FS 917_`929; THE HARNESS G09171051_`019, HARNESS, AFT FUSE, REAR LHS RAB; APPEAR WITH, QTY 5 CLAMPS GAUGE NOT AS PER DRAWING. REFERENCE CONNECTOR BUNDLE: J771 CONNECTOR BUNDLE WC R1P (SEGREGATION CODES A1P &amp; S1P) DISCREPANT CLAMPS: CLAMP: T1769 IS MS21919WDE15 SB MS21919WDE12 CLAMP: T1776 IS MS21919WDE15 SB MS21919WDE12 CLAMP: T1780 IS MS21919WDE15 SB MS21919WDE12 CLAMP: T1784 IS MS21919WDE15 SB MS21919WDE12 CLAMP: T1764 IS MS21919WDE14 SB MS21919WDE12 QUALITY NOTE: THE BUNDLE IN THE DISCREPANT PART HAVE A CONDUIT INSTALLED AS PER DWG AS FOLLOWS: PN: S10155M5 OUTER DIAMETER AS PER DATASHEET: 0.980" CLAMP MS21919WDE12 INNER DIAMETER AS PER DATASHEET: 0.750" SEE ATTACHMENTS AS REFERENCE</t>
-  </si>
-  <si>
-    <t>METHODS* REFERENCE NCR'S 70102 Q321007582 70109 Q321008501 70103 Q321008008 70110 Q321011400 70104 Q321008395 70111 Q321012131 70105 Q321008497 70112 Q321012756 70106 Q321008498 70113 Q321013306 70107 Q321008499 70108 Q321008500 AT FS 1080, RBL 5, CANTED FIREWALL. THE HARNESS G09172051_`019_`01, HARNESS, AFT FUSE, REAR RHS RBB; APPEAR WITH, CONNECTOR CLOCKING NOT AS PER DMU. CONECTOR IS P770 DMU CLOCKING: 22.5 DEGREES EHR CLOCKING: 0 DEGREES ACTUAL HARNESS CLOCKING: 0 DEGREES QUALITY NOTES: THE FOULING CONDITION PROVOKE FOULING BETWEEN CONNECTORS, THE FLOULING CONDITION REMAINS EVEN APPLYING THE BAPS 145_`207 TOLERANCE SEE ATTACHMENTS AS REFERENCE</t>
-  </si>
-  <si>
-    <t>METHODS* REFERENCE NCR'S 70095 Q321003341 70102 Q321006454 70109 Q321008486 70096 Q321004131 70103 Q321006455 70110 Q321011398 70097 Q321004646 70104 Q321008390 70111 Q321012126 70098 Q321005270 70105 Q321008482 70112 Q321012741 70099 Q321005803 70106 Q321008483 70113 Q321013304 70100 Q321006257 70107 Q321008484 70101 Q321006453 70108 Q321008485 AT FS 904 STGRS RBL 18 WL 50; THE HARNESS G09172051_`019, HARNESS, AFT FUSE, REAR RHS RBB; APPEAR WITH, QTY 2 CLAMPS GAUGE NOT AS PER DRAWING. REFERENCE CONNECTOR BUNDLE: P740 &amp; P748 DISCREPANT CLAMPS: CLAMP: RBB0961 IS MS21919WDE11 SB MS21919WDE9 CLAMP: RBB1163 IS MS21919WDE11 SB MS21919WDE9 G02490410 REV:L QUALITY NOTES: THE BUNDLES ON THE DISCREPANT CLAMPS HAVE A CONDUIT INSTALLED AS PER DWG AS REFERENCE ON ATTACHMENTS:</t>
-  </si>
-  <si>
-    <t>METHODS* REFERENCE NCR'S 70095 Q321003341 70104 Q321008391 70113 Q321013304 70096 Q321004131 70105 Q321008487 70097 Q321004646 70106 Q321008488 70098 Q321005270 70107 Q321008489 70099 Q321005803 70108 Q321008490 70100 Q321006260 70109 Q321008491 70101 Q321006461 70110 Q321011398 70102 Q321006462 70111 Q321012126 70103 Q321006463 70112 Q321012741 AT FS 929_`961 STGR 25 RHS ; THE HARNESS G09172051_`019, HARNESS, AFT FUSE, REAR RHS RBB; APPEAR WITH: QTY 5 CLAMPS INSTALLED GAUGE NOT AS PER DRAWING. REFERENCE CONNECTOR BUNDLE: P752, P754 REFERENCE SECONDARY SUPPORT: RBB7008 DISCREPANT CLAMPS: CLAMPS RBB0233, RBB0234 &amp; RBB0868 FOR THESE CLAMPS THE CCM'S INVOLVED ON BUNDLES TRAVELING TOGETHER WERE REMOVED BY PRODUCTION AND USED ONLY ONE CCM FOR BOTH BUNDLES IN ORDER TO REDUCE THE DIAMETER AND USE THE ALLOWED CLAMP SIZE IS MS21919WDE9 SB MS21919WDE8 CLAMP: RBB0244 FOR THIS CLAMP THE CCM'S INVOLVED ON BUNDLES TRAVELING TOGETHER WERE REMOVED BY PRODUCTION AND USED ONLY ONE FOR BOTH BUNDLES IN ORDER TO REDUCE THE DIAMETER. IS MS21919WDE11 SB MS21919WDE8 CLAMP: RBB0243 IS MS21919WDE7 SB MS21919WDE5 G02490410 REV:L QUALITY NOTES: _` THE BUNDLE IN THE DISCREPANT PLACES HAVE A CONDUIT INSTALLED AS PER DWG; SEE ATTACHMENTS AS BETTER REFERENCE. _` THE CLAMP RBB0244 HAVE INSIDE TWO CONDUITS AND ROUNDIT, MAKING THE DIAMETER BIGGER SEE ATTACHMENTS AS REFERENCE</t>
-  </si>
-  <si>
-    <t>METHODS* LOCATION:FS 1048 TO 1060, BTW STR 10 AND STR11 LH. QTY 1 HOLE WITH LOW ED CONDITION ON G05363449_`101 DOUBLER SIDE PANEL AFT BARREL. B/P B0205016AD5 HOLE DIA :.160" G&amp;R LOW E.D: 0.280" ON G05363449_`101 DOUBLER PITCH:0.800" INVOLVED PART(S): G05450472_`103, CLIP CTR BOX PYLON. E.D:0.350" PITCH: 1.300" G05363449_`101, DOUBLER, SIDE PANEL AFT BARREL. E.D: 0.280" G05363430_`109, SKIN SIDE PANEL AFT BARREL LH. E.D: NOT ISSUE G05363446_`105, STRAP SIDE PANEL AFT BARREL. E.D: NOT ISSUE SEE ATTACHMENTS.</t>
-  </si>
-  <si>
-    <t>METHODS* FS 1053, STR 11, RH. THERE IS (1) HOLE WITH LOW EDGE DISTANCE AT DOUBLER, SIDE PANEL, AFT BARREL (G05363449_`102). B/P B0205016AD5 DIA HOLE:.1595" G&amp;R E.D:.280â PITCH: .870â INVOLVED PARTS: CLIP, CTR BOX, PYLON (G05450472_`104) ED 0.360â PITCH: 1.300" SKIN, SIDE PANEL, AFT BARREL, RH (G05363536_`109) E.D NOT ISSUE STRAP, SIDE PANEL, AFT BARREL (G05363446_`106) E.D NOT ISSUE DOUBLER, SIDE PANEL, AFT BARREL (G05363449_`102) E.D: .280" SEE ATTACHMENTS.</t>
-  </si>
-  <si>
-    <t>METHODS* LOCATION FS 1016 RH. EXIST QTY 2 DOUBLES HOLES ON SKIN, LWR, CTR BOX, PYLON G05450503_`104. B/P B0206002AG5 HOLE #1 DIA DOUBLE HOLE:.180" PITCH: 1.100" E.D: .380" HOLE #2 ELONGATED HOLE: .181" PITCH: 1.100" ED 0.340â INVOLVED PARTS SKIN, LWR, CTR BOX, PYLON (G05450503_`104) E.D: NOT ISSUE FITTING, CTR BOX, PYLON (G05450680_`102) E.D MIN: .340" SEE ATTACHMENT</t>
-  </si>
-  <si>
-    <t>METHODS* REFERENCE NCR'S: 70094 Q321003149 70102 Q321007302 70095 Q321003123 70103 Q321007395 70096 Q321004130 70104 Q321007396 70097 Q320004535 70105 Q321009130 70098 Q321005268 70106 Q321009416 70099 Q321005356 (EXT) 70107 Q321009846 70100 Q321006254 70108 Q321010423 70101 Q321007092 70109 Q321010818 70110 Q321011369 70111 Q321012134 70112 Q321012716 70113 Q321013297 AT FS 1016_`1035 STGRS 13 &amp; 15 RHS ; THE HARNESS G09172051_`019, HARNESS, AFT FUSE, REAR RHS RBB; APPEAR WITH, QTY 3 CLAMPS GAUGE NOT AS PER DRAWING. REFERENCE CONNECTOR BUNDLE: J511 &amp; P785B BUNDLE SEGREGATION CODES D1G, D2G, E2G &amp; S2G DISCREPANT CLAMPS: CLAMP: RBB7009 IS MS21919WDE10 SB MS21919WDE8 CLAMP: RBB7084 IS MS21919WDE10 SB MS21919WDE8 CLAMP: RBB7035 IS MS21919WDE9 SB MS21919WDE7 QUALITY NOTES: THE BUNDLE IN THE DISCREPANT PART HAVE A CONDUIT INSTALLED AS PER DWG AS FOLLOWS: FOR RBB7009 &amp; RBB7084 CONDUIT PN: S10155H7; INSIDE DIAMETER AS PER DATA SHEET: 0.625" CLAMP MS21919WDE8; INNER DIAMETER AS PER DATA SHEET: 0.500" FOR RBB7035 CONDUIT PN: S10155H8; INSIDE DIAMETER AS PER DATA SHEET: 0.500" CLAMP MS21919WDE7; INNER DIAMETER AS PER DATA SHEET: 0.438" SEE ATTACHMENTS AS REFERENCE</t>
-  </si>
-  <si>
-    <t>METHODS* BTW FS 1016 STR 23, R/H. INTERCOSTAL, MOORING, FTG, AFT BARREL (G05363926_`102) WAS POSITIONATED AT ITâS B/P LOCATION AND IS NOTED A TAPER GAP CONDITION BEETWEN INTERCOSTAL AND FRAME, FRONT SPAR, REAR FUSE (G05363534_`113). TAPER GAP IS: 0.005â TO 0.010â LENGTH 3.200â WIDTH 0.850â B/P B0206001AG5 INVOLVED PARTS: G05363926_`102 INTERCOSTAL, MOORING, FTG, AFT BARREL. FRAME, FRONT SPAR, REAR FUSE (G05363534_`113). SEE ATTACHMENTS.</t>
-  </si>
-  <si>
-    <t>METHODS* LOCATION: BTW FS 1016 TO FS 1031, STR 23, L/H INTERCOSTAL, MOORING, FTG, AFT BARREL (G05363926_`101) WAS POSITIONATED AT ITâS B/P LOCATION AND IS NOTED A TAPER GAP CONDITION BEETWEN INTERCOSTAL AND FRAME, FRONT SPAR, REAR FUSE (G05363534_`113) TAPER GAP IS: 0.005â TO 0.012â LENGTH 3.200â WIDTH 0.850â B/P B0206001AG5 INVOLVED PARTS INTERCOSTAL, MOORING, FTG, AFT BARREL (G05363926_`101) FRAME, FRONT SPAR, REAR FUSE (G05363534_`113) SEE ATTACHMENTS.</t>
-  </si>
-  <si>
-    <t>TO METHODS. ON ASSEMBLY BARREL LH SKIN EXIST QTY (1) OVER SIZE HOLE THE PARTS IN COMMON ARE: FOR DAMAGE HOLE FRAME, REAR SPAR ,REAR FUSE (G05363529_`111) SKIN,SIDE PANEL, AFT BARREL, LH (G05363430_`109) SPLICE, REAR SPAR,AFT BARREL (G05363447_`105) NOTA: THE HOLE WAS OPENED THROUGH ALL PIECES TO 0.213" SEE THE ATTAHCMENTS FOR MORE DETAILS.</t>
-  </si>
-  <si>
-    <t>METHODS* FS 1072, CTR BOX LWR, R/H QTY (1) HOLE ELONGATED AT: AFFECTED PARTS: SKIN, FIXED TE, PYLON (G05450507_`102) E.D : 0.320â ANGLE, DRAG, FIXED TE, PYLON (G05450612_`104) E.D: 350â Ã TO CLEAN 0.184â Ã CSK : 0.247" B/P B0205018AD5 MIN PITCH 0.650â SEE ATTACHMENT.</t>
-  </si>
-  <si>
-    <t>METHODS* REF NCR Q321004209 FS 981, CL, STR 1, RH, LH IN ORDER TO ACHIEVE A PROPER INSTALLATION OF DORSAL FAIRING (G05530300_`101) ANGLE, DORSAL, AFT FUSE (G05530232_`104) AND ANGLE, DORSAL, AFT FUSE (G05530232_`103) WERE TRIMMED 0.340â RADIUS AT TRIMMED AREA 0.250" ANGLES DOES NOT ALLOW A PROPER FIT OF DORSAL FAIRING (G05530300_`101) WITH CHANNEL ASSY, DORSAL, LWR (G05530230_`004) AND CHANNEL ASSY, DORSAL, LWR (G05530230_`003) CLEARANCE BETWEEN ANGLES 0.360â MINIMUM ED TO ADJACENT FASTENER B0205017AD3 IS 0.630â SEE ATTACHMENTS.</t>
-  </si>
-  <si>
-    <t>METHODS* LOCATION: FS 1016, STR 26 LH. EXIST QTY 1 DOUBLE HOLE ONLY ON STRINGER 26, AFT BARREL, LH G05363668_`103. DRAWING G05363134 REV. J DIA. DOUBLE HOLE:.263" PITCH:.650" E.D:.260" INVOLVED PARTS: STRINGER 26, AFT BARREL, LH G05363668_`103. E.D:.260" SKIN LOWER PANEL AFT BARREL. G05363602_`111. E.D: NOT ISSUE SEE ATTACHMENTS.</t>
-  </si>
-  <si>
-    <t>*METHODS* FS 165 TO 200, WL 50 TO 109, L&amp;R SIDE GEOMETRIC AND DIMENSIONAL CHARACTERISTICS EVALUATED G05310750 DISCREPANT VALUE OUT OF TOLERANCE REPORTED: STP11R STP12R STP15R STP25R STP25L SKN01R SKN03 SEE ATTACHMENTS FOR REFERENCES AND DETAILS.</t>
-  </si>
-  <si>
-    <t>*METHODS* SEE NCR Q319013071 FOR REFERENCE. FS 165 TO 200, WL 50 TO 109, L&amp;R SIDE GEOMETRIC AND DIMENSIONAL CHARACTERISTICS EVALUATED PER DWG G05310750 REV _`AD_` (SHEET 7 AND 8) DISCREPANT VALUES OUT OF TOLERANCE REPORTED: SKN01R SKN02L IP01 IP02 IP04 IP05 IP06 IP07 SEE ATTACHMENTS FOR REFERENCES AND DETAILED DEVIATIONS. NOTE ATTACHMENT 2 IS THE FINAL CONDITION OF IP 6 &amp; IP7. ALSO AT THE TIME OF INSTALLATION, AN OVER SIZE HOLE WAS GENERATED. SEE ATTACHMENTS 3 &amp; 4.</t>
-  </si>
-  <si>
-    <t>*METHODS* FS 165 TO 200, WL 50 TO 109, L&amp;R SIDE GEOMETRIC AND DIMENSIONAL CHARACTERISTICS EVALUATED PER DWG G05310750 REV _`AB_` (SHEET 7 AND 8) DISCREPANT VALUES OUT OF TOLERANCE REPORTED: IP08LH IP08RH IP09RH IP11 IP15 IP16 NOTE: THE DOOR'S WERE POSITIONED AS PER VISUAL WORK INSTRUCTION GX76902 TO VALIDATE STEPS AND GAPS. WITHOUT ISSUES TO REPORT SEE ATTACHMENTS FOR REFERENCES AND DETAILS.</t>
-  </si>
-  <si>
-    <t>DESIGN* AT LHS TE BTWN FS 1048 TO 1099 NCR REFERENCE Q321009016 QTY(7) BOLT B0201094V3 FLUSHNESS OUT OF TOLERANCES (TOO DEPTH) FLUSHNESS TOLERANCE PER DWG. G00606301 REV. _`P IS +0.000"/_`0.005". REFERENCE FOR PART NUMBERS SKIN, REMOVABLE TE, PYLON (G05450508_`107) COMMON TO SCREWS 1 TO 32 SKIN, REMOVABLE TE, PYLON (G05450509_`105) COMMON TO SCREWS 33 TO 63 (EXCEPT 45_`46_`47) PANEL, REMOVABLE TE, PYLON (G05450642_`105) COMMON TO SCREWS 45_`46_`47 AND 64 TO 70 WORST CONDITION _`0.007" ALL DIMENSION EXPRESSED IN INCHES HOLES MET ALL REQUIREMENTS FOR B0201094V3_`5 REFER TO ATTACHMENTS FOR BOLTS LOCATION, AND MEASURES.</t>
-  </si>
-  <si>
-    <t>METHODS* NCR EXTENSION IS REQUIRED FOR A/C 70111 TO A/C 70118 NOTE: METHODS IS WORKING IN RFC PARTS INVOLVED P/N. DESCRIPTION. G05364106_`003. BEAM ASSY, FLOOR. G05364101_`003. BEAM ASSY, FLOOR. G05364110_`009. BEAM ASSY, LONGITUDINAL. G05373026_`101. BRACKET, GROUND. REFER TO DRAWING G05372102 REV. _`D, SHEET #2, ZONE 6B, SECTION A_`A FOR BRACKET INSTALLATION. _` B/P FASTENER MS20470AD5_`5S. THE PROCESS TO ACHIEVE THE CONDUCTIVITY BETWEEN BRACKET, GROUND (G05373026_`101) &amp; BEAM ASSY, LONGITUDINAL (G05364110_`009) WAS NOT PERFORMED AS PER WORK INSTRUCTION (GX820502070) &amp; DRAWING REQUIREMENTS (G05372102 REV. _`D) DUE TO THERE IS NOT CONDUCTIVITY BETWEEN COMMON BOLTS (NAS6703A4 AND NAS1149D0332K). ACTUAL CONDITION PROCESS WAS FOLLLOWED ACCORDING TO FINAL DISPOSITION MADE IN NCR Q321007947 &amp; Q321008553 IN ORDER TO ACHIEVE CONDUCTIVITY TOLERANCES AS PER DRAWING (RECORDED VALUE IS LESS OR EQUAL TO 2.5 MILIâ¦) SEE ATTACHMENTS FOR REFERENCES</t>
+    <t>Q321013840-1</t>
+  </si>
+  <si>
+    <t>AGX806</t>
+  </si>
+  <si>
+    <t>G05361500-003</t>
+  </si>
+  <si>
+    <t>PANEL ASSY, LOWER, AFT FUSE</t>
+  </si>
+  <si>
+    <t>Q321013842-1</t>
+  </si>
+  <si>
+    <t>AGX808</t>
+  </si>
+  <si>
+    <t>G05362500-003</t>
+  </si>
+  <si>
+    <t>PANEL ASSY, RH, AFT FUSE</t>
+  </si>
+  <si>
+    <t>Q321013843-1</t>
+  </si>
+  <si>
+    <t>AGX810</t>
+  </si>
+  <si>
+    <t>Q321013849-1</t>
+  </si>
+  <si>
+    <t>G05365560-104-01</t>
+  </si>
+  <si>
+    <t>ANGLE, SPLICE, UPR, AFT PRESS BHD</t>
+  </si>
+  <si>
+    <t>Q321013837-1</t>
+  </si>
+  <si>
+    <t>G05364500-001-01</t>
+  </si>
+  <si>
+    <t>STRUCTURE ASSY, FUEL TANK, REAR FUSE</t>
+  </si>
+  <si>
+    <t>Q321013809-1</t>
+  </si>
+  <si>
+    <t>G05363921-001</t>
+  </si>
+  <si>
+    <t>Q321013809-2</t>
+  </si>
+  <si>
+    <t>G05530215-101</t>
+  </si>
+  <si>
+    <t>ANGLE, FRONT SPAR, VSTAB</t>
+  </si>
+  <si>
+    <t>Q321013725-3</t>
+  </si>
+  <si>
+    <t>G05450427-101</t>
+  </si>
+  <si>
+    <t>RIB, CTR BOX, PYLON</t>
+  </si>
+  <si>
+    <t>Q321013725-4</t>
+  </si>
+  <si>
+    <t>G05450605-101</t>
+  </si>
+  <si>
+    <t>ANGLE, DRAG, CTR BOX, PYLON</t>
+  </si>
+  <si>
+    <t>METHODS* LOCATION BETWEEN FS 833 &amp; FS 1016, STGR 17 RH &amp; STGR 17 LH, AFFECTED LOWER SKIN, PANEL RH AND LH, IML. ACTUAL CONDITION IS EXIST QTY(20) PARTS WITHOUT THE FINISH CODE REQUIRED BY ENGINEERING DRAWING, PARTS ARE ONLY WITH GREEN COLOR (PRIMER) IN LOWER PANEL G05361500_`003 CONDITION S/B PANEL G05361500_`003 IN IML SIDE SHOULD BE WHITE AS PER FINISH CODE REQUIRED BY DRAWING G00651302, REV D &amp; DRAWING G00651301, REV K IS BAMS 565_`002 (TOPCOAT) PER BAPS 138_`044. PART INSTALLED IN WORK CENTER AGX806 FS 1016 &amp; FS 999 PN SIDE QTY 1. G05379171_`101 LH 1 FS 981 &amp; FS 945 PN SIDE QTY 2. G05362062_`102 LH 1 FS 917 &amp; FS 929 PN SIDE QTY 3. G05361989_`101_`01 LH 1 4. G05361989_`101_`01 RH 1 FS 904 PN SIDE QTY 5. G05361987_`101_`01 LH 1 6. G05361993_`101_`01 LH 1 7. G05361988_`101_`01 RH 1 8. G05361987_`102_`01 RH 1 FS 864 PN SIDE QTY 9. G05361816_`101 LH 1 10. G05361817_`101 LH 1 11. G05379142_`001_`01 LH 1 12. G05361821_`101 LH 1 FS 864 &amp; FS 846 PN SIDE QTY 13. G05361813_`101 _`02 RH 1 FS 846 PN SIDE QTY 14. G05361814_`101 LH 1 15. G05361815_`101 LH 1 16. G05361821_`101 LH 1 17. G05361985_`101_`01 LH 1 18. G05361985_`101_`01 RH 1 19. G05361985_`101_`01 RH 1 20. B0101010AG_`1 RH 1 _`QUERY FOR THIS ISSUE IS #4412 Y #4862 SEE ATTACHMENTS FOR MORE REFERENCES</t>
+  </si>
+  <si>
+    <t>METHODS* LOCATION BETWEEN FS 904 &amp; FS 917, STGR 19 ACTUAL CONDITION IS EXIST QTY(2) PARTS WITHOUT THE FINISH CODE REQUIRED BY ENGINEERING DRAWING G00651302, REV D &amp; DRAWING G00651302, PARTS ONLY HAVE PRIMER. S/B CONDITION FINISH CODE REQUIRED BY DRAWING G00651301 &amp; G00651302 IS BAMS 565_`002 (TOPCOAT) PER BAPS 138_`044. FS 904 &amp; FS 917 1. G05379140_`101 RH 2 _`QUERY FOR THIS ISSUE IS #4412 Y #4862 SEE ATTACHMENTS FOR MORE REFERENCES</t>
+  </si>
+  <si>
+    <t>METHODS* LOCATION BETWEEN FS 833 &amp; FS 1016, STGR 17 RH &amp; STGR 17 LH, AFFECTED LOWER SKIN, PANEL RH AND LH, IML. ACTUAL CONDITION IS EXIST QTY(15) PARTS NUMBERS WITHOUT THE FINISH CODE REQUIRED BY ENGINEERING DRAWING G00651302, REV D &amp; DRAWING G00651302, PARTS ONLY HAVE PRIMER. S/B CONDITION FINISH CODE REQUIRED BY DRAWING G00651301 &amp; G00651302 IS BAMS 565_`002 (TOPCOAT) PER BAPS 138_`044. FS 833 PN SIDE QTY 1. G05362301_`101 RH &amp; LH 2 FS 846 2. G05362821_`101_`01 RH 1 3. G05362034_`101_`01 LH 2 FS 864 4. G05362057_`101 RH 1 5. G05362412_`101 LH 1 FS 881 6. G05362821_`101_`01 LH 1 7. G05379142_`101 LH 2 FS 904 8. G05362822_`101_`01 RH 1 9. G05362038_`102 RH 1 FS 917 10. G05362822_`101_`01 RH 1 11. G05362039_`102 RH 1 FS 929 12. G05362822_`101_`01 RH 1 13. G05362039_`102 RH 1 FS 945 14. G05362822_`101_`01 RH 1 15. G05362090_`102 RH 1 _`QUERY FOR THIS ISSUE IS #4412 Y #4862 SEE ATTACHMENTS FOR MORE REFERENCES</t>
+  </si>
+  <si>
+    <t>METHODS* ANGLE, SPLICE, UPR (G05365560_`104) CONDITION IS NOT FEASIBLE TO USE OR REPAIR. DETAIL STATED AS OBVIOUS SCRAP. IS REQUIRED BY PRODUCTION A NEW B/P PART. SEE ATTACHMENTS FOR DETAILS.</t>
+  </si>
+  <si>
+    <t>METHODS* REFER TO NCR Q320017860, Q320018889, Q320019504, Q321006271, Q321008778 FOR SIMILAR CONDITION ON REPETITIVE ISSUE AFTER SEVERAL TESTS PERFORMED TO PREVENT GAP CONDITION, GAPS WERE FOUND AS FOLLOWS FOR THE TYP 6 LOCATIONS WITH GAP ON STRUCTURE ASSY, FUEL TANK, REAR FUSE (G05364500_`001_`01): _`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_` LOC. INSTL. ENG. DWG. GAP BTWN P/N 1 AND P/N 2, P/N 3 MAX.GAP / LENGTH / WIDTH _`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_` 1 G05364500 REV. H G05364589_`101 G05364545_`101, G05364540_`101 NO GAP FOUND, NO ISSUE 2 G05364500 REV. H G05364588_`101 G05364542_`101 0.010" / 0.630" / 0.160" 3 G05375300 REV. K G05375340_`101 G05364542_`101 0.010" / 0.500" / 0.150" 4 G05375300 REV. K G05375340_`101 G05364542_`102 NO GAP FOUND, NO ISSUE 5 G05364500 REV. H G05364588_`101 G05364542_`102 0.008" / 0.660" / 0.170" 6 G05364500 REV. H G05364589_`102 G05364545_`102, G05364540_`102 NO GAP FOUND, NO ISSUE _`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_` CONSIDER THE FOLLOWING NOTES FOR EVALUATION: _` B/P ON EVERY LOCATION IS MS20470AD5_`*S. _` GAP DOES NOT TOUCH FASTENER SHANK IN ANY LOCATION. _` WHERE NO GAP IN SHOWN, CONSIDER GAP TO BE UNDER 0.005". ALSO, AS MENTIONED ON REFERENCE NCR: THIS IS A REPETITIVE CONDITION USUALLY WITHIN FAYING SURFACE SEAL TOLERANCE (0.005"). WHEN CONDITION EXCEEDS TOLERANCE, GUSSETS ARE REMOVED AND REPLACED WITH OB</t>
+  </si>
+  <si>
+    <t>METHODS* AT FS 1016 UPR THERE ARE QTY 4 EXCESSIVE GAP ON THE ASSY. GAPS WITHOUT APPLYING ANY FORCE (FREE STATE) GAP A RHS A UNIFORM GAP OF .062â IN A LENGTH LENGTH 16â BTWN FITTING, INTERFACE, FRONT SPAR, VS (G05530213_`106) AND SPAR, FRONT, VSTAB (G05530405_`107) GAP B LHS A UNIFORM GAP .062â IN A LENGTH LENGTH 16â BTWN FITTING, INTERFACE, FRONT SPAR, VS (G05530213_`105) AND SPAR, FRONT, VSTAB (G05530405_`109). GAP E LHS A UNIFORM GAP .050â MAX LENGTH 13â BTWN FITTING, INTERFACE, FRONT SPAR, VS (G05530213_`105) AND FRAME, FRONT SPAR (G05363534_`113). Â  GAP F RHS A UNIFORM GAP .050â MAX LENGTH 13â BTWN FITTING, INTERFACE, FRONT SPAR, VS (G05530213_`106) AND FRAME, FRONT SPAR (G05363534_`113). INVOLVED PARTS: FITTING, INTERFACE, FRONT SPAR, VS (G05530213_`106) FITTING, INTERFACE, FRONT SPAR, VS (G05530213_`105) FRAME FROM SPAR (G05363534_`113) SHIM LAMINATED (G05363972_`101) SHIM LAMINATED (G05363973_`101) SPAR, FRONT, VSTAB (G05530405_`109) SEE ATTACHMENTS.</t>
+  </si>
+  <si>
+    <t>METHODS* REF Q320023481_`002. AT FS 1016 BL 0.000 UPR SIDE B/P B0206033AG8 SPAR, FRONT, VSTAB (G05530405_`109) ANGLE, FRONT SPAR, VSTAB (G05530215_`101) EXIST A UNIFORM GAP OF .050" BTWN SPAR AND ANGLE (BETWEEN THE CONTACT SURFACE OF BOTH PIECES) LENGTH: 4.7â WIDTH: 2.9â SEE ATTACHMENTS.</t>
+  </si>
+  <si>
+    <t>METHODS* FS 999, STGR 10, L/H QTY (4) HOLES WITH LOW EDGE DISTANCE CONDITION AT RIB, CTR BOX, PYLON (G05450427_`101) B/P B0205016AD5 PITCH 0.750â COMMON TO: ANGLE, CTR BOX, PYLON (G05450490_`101) ED NOT AN ISSUE SEE ATTACHMENT FOR DETAILS.</t>
+  </si>
+  <si>
+    <t>METHODS* FS 1072, STR 13, LWR CTR BOX PYLON, L/H QTY (1) LOW EDGE DISTANCE CONDITION AT: ANGLE, DRAG, CTR BOX, PYLON (G05450605_`101) ED 0.295â B/P B0205020AD5 PITCH 0.790â COMMON TO: SKIN, LWR, CTR BOX, PYLON (G05450503_`103) ED 0.390" B/P FASTENER IS INSTALLED. SEE ATTACHMENT.</t>
   </si>
 </sst>
 </file>
@@ -1190,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,266 +1092,266 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>70120</v>
+        <v>70122</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>70112</v>
+        <v>70122</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>70113</v>
+        <v>70122</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>70114</v>
+        <v>70120</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>70115</v>
+        <v>70116</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>70116</v>
+        <v>70118</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>70117</v>
+        <v>70118</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>44419</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>70118</v>
+        <v>70117</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1504,606 +1360,77 @@
         <v>44419</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>70117</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>70117</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>95</v>
-      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>70116</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" t="s">
-        <v>98</v>
-      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13">
-        <v>70118</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>99</v>
-      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14">
-        <v>70117</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" t="s">
-        <v>90</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15">
-        <v>70117</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" t="s">
-        <v>91</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16">
-        <v>70117</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17">
-        <v>70117</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18">
-        <v>70115</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19">
-        <v>70114</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20">
-        <v>70114</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21">
-        <v>70114</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22">
-        <v>70114</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23">
-        <v>70114</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24">
-        <v>70114</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25">
-        <v>70114</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26">
-        <v>70120</v>
-      </c>
-      <c r="G26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27">
-        <v>70120</v>
-      </c>
-      <c r="G27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28">
-        <v>70120</v>
-      </c>
-      <c r="G28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" t="s">
-        <v>102</v>
-      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J25" xr:uid="{7B46796D-AB42-47AA-9297-DD7ED14EE1B3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
-      <sortCondition ref="A1:A25"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J27" xr:uid="{E3AB2736-E0AD-43C1-8FFE-125F624F1E8E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ML/Real_Test.xlsx
+++ b/ML/Real_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b0612544\Documents\Projects\Quality\ShinyDashboards\RNC_Dashboard\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E4B485-BA7F-434A-9285-5A80306C4A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BED596-8F91-4990-B125-0A1B1559AF69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Real_Test" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Zone</t>
   </si>
@@ -71,24 +71,9 @@
     <t>Methods</t>
   </si>
   <si>
-    <t>Zone 3.2</t>
-  </si>
-  <si>
-    <t>AGX830</t>
-  </si>
-  <si>
     <t>SNC</t>
   </si>
   <si>
-    <t>Zone 3.3</t>
-  </si>
-  <si>
-    <t>AGX950</t>
-  </si>
-  <si>
-    <t>JOINT INSTL, STA 1016, REAR FUSE</t>
-  </si>
-  <si>
     <t>Zone 3.4</t>
   </si>
   <si>
@@ -98,112 +83,112 @@
     <t>Zone 3.1</t>
   </si>
   <si>
-    <t>Q321013840-1</t>
-  </si>
-  <si>
-    <t>AGX806</t>
-  </si>
-  <si>
-    <t>G05361500-003</t>
-  </si>
-  <si>
-    <t>PANEL ASSY, LOWER, AFT FUSE</t>
-  </si>
-  <si>
-    <t>Q321013842-1</t>
-  </si>
-  <si>
-    <t>AGX808</t>
-  </si>
-  <si>
-    <t>G05362500-003</t>
-  </si>
-  <si>
-    <t>PANEL ASSY, RH, AFT FUSE</t>
-  </si>
-  <si>
-    <t>Q321013843-1</t>
-  </si>
-  <si>
-    <t>AGX810</t>
-  </si>
-  <si>
-    <t>Q321013849-1</t>
-  </si>
-  <si>
-    <t>G05365560-104-01</t>
-  </si>
-  <si>
-    <t>ANGLE, SPLICE, UPR, AFT PRESS BHD</t>
-  </si>
-  <si>
-    <t>Q321013837-1</t>
-  </si>
-  <si>
-    <t>G05364500-001-01</t>
-  </si>
-  <si>
-    <t>STRUCTURE ASSY, FUEL TANK, REAR FUSE</t>
-  </si>
-  <si>
-    <t>Q321013809-1</t>
-  </si>
-  <si>
-    <t>G05363921-001</t>
-  </si>
-  <si>
-    <t>Q321013809-2</t>
-  </si>
-  <si>
-    <t>G05530215-101</t>
-  </si>
-  <si>
-    <t>ANGLE, FRONT SPAR, VSTAB</t>
-  </si>
-  <si>
-    <t>Q321013725-3</t>
-  </si>
-  <si>
-    <t>G05450427-101</t>
-  </si>
-  <si>
-    <t>RIB, CTR BOX, PYLON</t>
-  </si>
-  <si>
-    <t>Q321013725-4</t>
-  </si>
-  <si>
-    <t>G05450605-101</t>
-  </si>
-  <si>
     <t>ANGLE, DRAG, CTR BOX, PYLON</t>
   </si>
   <si>
-    <t>METHODS* LOCATION BETWEEN FS 833 &amp; FS 1016, STGR 17 RH &amp; STGR 17 LH, AFFECTED LOWER SKIN, PANEL RH AND LH, IML. ACTUAL CONDITION IS EXIST QTY(20) PARTS WITHOUT THE FINISH CODE REQUIRED BY ENGINEERING DRAWING, PARTS ARE ONLY WITH GREEN COLOR (PRIMER) IN LOWER PANEL G05361500_`003 CONDITION S/B PANEL G05361500_`003 IN IML SIDE SHOULD BE WHITE AS PER FINISH CODE REQUIRED BY DRAWING G00651302, REV D &amp; DRAWING G00651301, REV K IS BAMS 565_`002 (TOPCOAT) PER BAPS 138_`044. PART INSTALLED IN WORK CENTER AGX806 FS 1016 &amp; FS 999 PN SIDE QTY 1. G05379171_`101 LH 1 FS 981 &amp; FS 945 PN SIDE QTY 2. G05362062_`102 LH 1 FS 917 &amp; FS 929 PN SIDE QTY 3. G05361989_`101_`01 LH 1 4. G05361989_`101_`01 RH 1 FS 904 PN SIDE QTY 5. G05361987_`101_`01 LH 1 6. G05361993_`101_`01 LH 1 7. G05361988_`101_`01 RH 1 8. G05361987_`102_`01 RH 1 FS 864 PN SIDE QTY 9. G05361816_`101 LH 1 10. G05361817_`101 LH 1 11. G05379142_`001_`01 LH 1 12. G05361821_`101 LH 1 FS 864 &amp; FS 846 PN SIDE QTY 13. G05361813_`101 _`02 RH 1 FS 846 PN SIDE QTY 14. G05361814_`101 LH 1 15. G05361815_`101 LH 1 16. G05361821_`101 LH 1 17. G05361985_`101_`01 LH 1 18. G05361985_`101_`01 RH 1 19. G05361985_`101_`01 RH 1 20. B0101010AG_`1 RH 1 _`QUERY FOR THIS ISSUE IS #4412 Y #4862 SEE ATTACHMENTS FOR MORE REFERENCES</t>
-  </si>
-  <si>
-    <t>METHODS* LOCATION BETWEEN FS 904 &amp; FS 917, STGR 19 ACTUAL CONDITION IS EXIST QTY(2) PARTS WITHOUT THE FINISH CODE REQUIRED BY ENGINEERING DRAWING G00651302, REV D &amp; DRAWING G00651302, PARTS ONLY HAVE PRIMER. S/B CONDITION FINISH CODE REQUIRED BY DRAWING G00651301 &amp; G00651302 IS BAMS 565_`002 (TOPCOAT) PER BAPS 138_`044. FS 904 &amp; FS 917 1. G05379140_`101 RH 2 _`QUERY FOR THIS ISSUE IS #4412 Y #4862 SEE ATTACHMENTS FOR MORE REFERENCES</t>
-  </si>
-  <si>
-    <t>METHODS* LOCATION BETWEEN FS 833 &amp; FS 1016, STGR 17 RH &amp; STGR 17 LH, AFFECTED LOWER SKIN, PANEL RH AND LH, IML. ACTUAL CONDITION IS EXIST QTY(15) PARTS NUMBERS WITHOUT THE FINISH CODE REQUIRED BY ENGINEERING DRAWING G00651302, REV D &amp; DRAWING G00651302, PARTS ONLY HAVE PRIMER. S/B CONDITION FINISH CODE REQUIRED BY DRAWING G00651301 &amp; G00651302 IS BAMS 565_`002 (TOPCOAT) PER BAPS 138_`044. FS 833 PN SIDE QTY 1. G05362301_`101 RH &amp; LH 2 FS 846 2. G05362821_`101_`01 RH 1 3. G05362034_`101_`01 LH 2 FS 864 4. G05362057_`101 RH 1 5. G05362412_`101 LH 1 FS 881 6. G05362821_`101_`01 LH 1 7. G05379142_`101 LH 2 FS 904 8. G05362822_`101_`01 RH 1 9. G05362038_`102 RH 1 FS 917 10. G05362822_`101_`01 RH 1 11. G05362039_`102 RH 1 FS 929 12. G05362822_`101_`01 RH 1 13. G05362039_`102 RH 1 FS 945 14. G05362822_`101_`01 RH 1 15. G05362090_`102 RH 1 _`QUERY FOR THIS ISSUE IS #4412 Y #4862 SEE ATTACHMENTS FOR MORE REFERENCES</t>
-  </si>
-  <si>
-    <t>METHODS* ANGLE, SPLICE, UPR (G05365560_`104) CONDITION IS NOT FEASIBLE TO USE OR REPAIR. DETAIL STATED AS OBVIOUS SCRAP. IS REQUIRED BY PRODUCTION A NEW B/P PART. SEE ATTACHMENTS FOR DETAILS.</t>
-  </si>
-  <si>
-    <t>METHODS* REFER TO NCR Q320017860, Q320018889, Q320019504, Q321006271, Q321008778 FOR SIMILAR CONDITION ON REPETITIVE ISSUE AFTER SEVERAL TESTS PERFORMED TO PREVENT GAP CONDITION, GAPS WERE FOUND AS FOLLOWS FOR THE TYP 6 LOCATIONS WITH GAP ON STRUCTURE ASSY, FUEL TANK, REAR FUSE (G05364500_`001_`01): _`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_` LOC. INSTL. ENG. DWG. GAP BTWN P/N 1 AND P/N 2, P/N 3 MAX.GAP / LENGTH / WIDTH _`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_` 1 G05364500 REV. H G05364589_`101 G05364545_`101, G05364540_`101 NO GAP FOUND, NO ISSUE 2 G05364500 REV. H G05364588_`101 G05364542_`101 0.010" / 0.630" / 0.160" 3 G05375300 REV. K G05375340_`101 G05364542_`101 0.010" / 0.500" / 0.150" 4 G05375300 REV. K G05375340_`101 G05364542_`102 NO GAP FOUND, NO ISSUE 5 G05364500 REV. H G05364588_`101 G05364542_`102 0.008" / 0.660" / 0.170" 6 G05364500 REV. H G05364589_`102 G05364545_`102, G05364540_`102 NO GAP FOUND, NO ISSUE _`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_`_` CONSIDER THE FOLLOWING NOTES FOR EVALUATION: _` B/P ON EVERY LOCATION IS MS20470AD5_`*S. _` GAP DOES NOT TOUCH FASTENER SHANK IN ANY LOCATION. _` WHERE NO GAP IN SHOWN, CONSIDER GAP TO BE UNDER 0.005". ALSO, AS MENTIONED ON REFERENCE NCR: THIS IS A REPETITIVE CONDITION USUALLY WITHIN FAYING SURFACE SEAL TOLERANCE (0.005"). WHEN CONDITION EXCEEDS TOLERANCE, GUSSETS ARE REMOVED AND REPLACED WITH OB</t>
-  </si>
-  <si>
-    <t>METHODS* AT FS 1016 UPR THERE ARE QTY 4 EXCESSIVE GAP ON THE ASSY. GAPS WITHOUT APPLYING ANY FORCE (FREE STATE) GAP A RHS A UNIFORM GAP OF .062â IN A LENGTH LENGTH 16â BTWN FITTING, INTERFACE, FRONT SPAR, VS (G05530213_`106) AND SPAR, FRONT, VSTAB (G05530405_`107) GAP B LHS A UNIFORM GAP .062â IN A LENGTH LENGTH 16â BTWN FITTING, INTERFACE, FRONT SPAR, VS (G05530213_`105) AND SPAR, FRONT, VSTAB (G05530405_`109). GAP E LHS A UNIFORM GAP .050â MAX LENGTH 13â BTWN FITTING, INTERFACE, FRONT SPAR, VS (G05530213_`105) AND FRAME, FRONT SPAR (G05363534_`113). Â  GAP F RHS A UNIFORM GAP .050â MAX LENGTH 13â BTWN FITTING, INTERFACE, FRONT SPAR, VS (G05530213_`106) AND FRAME, FRONT SPAR (G05363534_`113). INVOLVED PARTS: FITTING, INTERFACE, FRONT SPAR, VS (G05530213_`106) FITTING, INTERFACE, FRONT SPAR, VS (G05530213_`105) FRAME FROM SPAR (G05363534_`113) SHIM LAMINATED (G05363972_`101) SHIM LAMINATED (G05363973_`101) SPAR, FRONT, VSTAB (G05530405_`109) SEE ATTACHMENTS.</t>
-  </si>
-  <si>
-    <t>METHODS* REF Q320023481_`002. AT FS 1016 BL 0.000 UPR SIDE B/P B0206033AG8 SPAR, FRONT, VSTAB (G05530405_`109) ANGLE, FRONT SPAR, VSTAB (G05530215_`101) EXIST A UNIFORM GAP OF .050" BTWN SPAR AND ANGLE (BETWEEN THE CONTACT SURFACE OF BOTH PIECES) LENGTH: 4.7â WIDTH: 2.9â SEE ATTACHMENTS.</t>
-  </si>
-  <si>
-    <t>METHODS* FS 999, STGR 10, L/H QTY (4) HOLES WITH LOW EDGE DISTANCE CONDITION AT RIB, CTR BOX, PYLON (G05450427_`101) B/P B0205016AD5 PITCH 0.750â COMMON TO: ANGLE, CTR BOX, PYLON (G05450490_`101) ED NOT AN ISSUE SEE ATTACHMENT FOR DETAILS.</t>
-  </si>
-  <si>
-    <t>METHODS* FS 1072, STR 13, LWR CTR BOX PYLON, L/H QTY (1) LOW EDGE DISTANCE CONDITION AT: ANGLE, DRAG, CTR BOX, PYLON (G05450605_`101) ED 0.295â B/P B0205020AD5 PITCH 0.790â COMMON TO: SKIN, LWR, CTR BOX, PYLON (G05450503_`103) ED 0.390" B/P FASTENER IS INSTALLED. SEE ATTACHMENT.</t>
+    <t>Zone 1</t>
+  </si>
+  <si>
+    <t>Q321013865-1</t>
+  </si>
+  <si>
+    <t>AGX744</t>
+  </si>
+  <si>
+    <t>G05372390-001</t>
+  </si>
+  <si>
+    <t>ECS INSTL CPCS PROVISION REAR FUSE</t>
+  </si>
+  <si>
+    <t>Q321013894-1</t>
+  </si>
+  <si>
+    <t>AGX802</t>
+  </si>
+  <si>
+    <t>G05372102-003</t>
+  </si>
+  <si>
+    <t>ECS INSTL TRIM AIR PROVISIONS</t>
+  </si>
+  <si>
+    <t>Q321013725-5</t>
+  </si>
+  <si>
+    <t>G05450606-101</t>
+  </si>
+  <si>
+    <t>Q321013725-6</t>
+  </si>
+  <si>
+    <t>G05361867-102</t>
+  </si>
+  <si>
+    <t>DOUBLER, PYLON, AFT FUSE</t>
+  </si>
+  <si>
+    <t>Q321013727-3</t>
+  </si>
+  <si>
+    <t>G05450605-102</t>
+  </si>
+  <si>
+    <t>Q321013884-1</t>
+  </si>
+  <si>
+    <t>G05360050-005-01</t>
+  </si>
+  <si>
+    <t>CATWALK INSTL, AFT FUSE</t>
+  </si>
+  <si>
+    <t>Zone 4</t>
+  </si>
+  <si>
+    <t>Q321013867-1</t>
+  </si>
+  <si>
+    <t>AGX965</t>
+  </si>
+  <si>
+    <t>G09171071-005</t>
+  </si>
+  <si>
+    <t>CABLE, PWR FDR, ACEPC 1 APU TB RAP</t>
+  </si>
+  <si>
+    <t>Q321013867-2</t>
+  </si>
+  <si>
+    <t>G09171057-007</t>
+  </si>
+  <si>
+    <t>CABLE, PWR FDDR, VFG LHS ACEPC 1 PH A RL</t>
+  </si>
+  <si>
+    <t>METHODS* REFER TO NCR Q321006033. LOCATION: BL0 F.S.897 L/H R/H. EXISTS LOW CLEARANCE CONDITION BETWEEN STIFFENER 1, VERTICAL, AFT PRESS BHD (G05365510_`103) AND TUBE ASSY, CPCS, REAR PRESSURE BULKHEAD (G02193008_`001) AND TUBE ASSY, CPCS, REAR PRESSURE BULKHEAD (G02193007_`001). ACTUAL CONDITION: B/P STANDOFF, TWO LUG, UPRIGHT (B0204034AL_`7W) COMMON TO PART: _` CLAMP, LOOP (M85052/1_`6). _` WASHER, FLAT (B0202033C0332K). _` SCREW, HEX HD (B0201081CK3_`8). LH CLEARANCE = .090" RH CLEARANCE = .090" THE RFC (3000152390) WAS CREATED FOR STANDOFF CHANGE FROM 6 TO 8 LONG BUT CHANGED TO 7 AND THE MINIMUM CLEARANCE SPACE IS NOT AS BAPS 174_`004. A NEW RFC IS REQUIRED. SEE ATTACHMENTS FOR DETAILS REFERENCE RNC Q320003395, Q320004614 AND Q320017825. THE QUERY WAS ALREADY RAISED NO. 542 AND 3356. NOTE: PRODUCTION DECIDED TO INSTALL THE STANDOFF B0204034AL_`8W IN ORDER TO CONTINUE WITH THE PROCESS.</t>
+  </si>
+  <si>
+    <t>METHODS* PARTS INVOLVED P/N. DESCRIPTION. G05364106_`003. BEAM ASSY, FLOOR. G05364101_`003. BEAM ASSY, FLOOR. G05364110_`009. BEAM ASSY, LONGITUDINAL. G05373026_`101. BRACKET, GROUND. REFER TO DRAWING G05372102 REV. _`D, SHEET #2, ZONE 6B, SECTION A_`A FOR BRACKET INSTALLATION. _` B/P FASTENER MS20470AD5_`5S. THE PROCESS TO ACHIEVE THE CONDUCTIVITY BETWEEN BRACKET, GROUND (G05373026_`101) &amp; BEAM ASSY, LONGITUDINAL (G05364110_`009) WAS NOT PERFORMED AS PER WORK INSTRUCTION (GX820502070) &amp; DRAWING REQUIREMENTS (G05372102 REV. _`D) DUE TO THERE IS NOT CONDUCTIVITY BETWEEN COMMON BOLTS (NAS6703A4 AND NAS1149D0332K). ACTUAL CONDITION PROCESS WAS FOLLLOWED ACCORDING TO FINAL DISPOSITION MADE IN NCR Q321007947, Q321008553 &amp; Q321013764 IN ORDER TO ACHIEVE CONDUCTIVITY TOLERANCES AS PER DRAWING (RECORDED VALUE IS LESS OR EQUAL TO 2.5 MILIâ¦) NOTE: PRODUCTION INSTALLED QTY(4) EXTRA BOLTS B0201096V3 WITH QTY_` 4 NAS1149D0332K PER BAPS 150_`000 AND BAPS 150_`002. _` TORQUE APPLIED WAS OF 22.5 LB_`IN. NOTE: METHODS IS WORKING IN RFC SEE ATTACHMENTS FOR REFERENCES</t>
+  </si>
+  <si>
+    <t>METHODS* AT LHS CTR BOX UPR BTWN 1031 AND FS 1016. EXIST QTY 3 DOUBLES HOLES ON ANGLE, DRAG, CTR BOX, PYLON (G05450606_`101). HOLE # 1 B/P B0206002AG5 DIA. DOUBLE HOLE:.164" PITCH:.700" INVOLVED PARTS ANGLE, DRAG, CTR BOX, PYLON (G05450606_`101) E.D: .370" SKIN, SIDE PANEL, AFT BARREL, LH (G05363430_`109) E.D: NOT ISSUE DOUBLER, SIDE PANEL, AFT BARREL, LH (G05363451_`105) E.D: .380" HOLE # 2 B/P B0206002AG5 DIA. DOUBLE HOLE:.164" PITCH:.700" INVOLVED PARTS ANGLE, DRAG, CTR BOX, PYLON (G05450606_`101) E.D: .360" SKIN, SIDE PANEL, AFT BARREL, LH (G05363430_`109) E.D: NOT ISSUE DOUBLER, SIDE PANEL, AFT BARREL, LH (G05363451_`105) E.D: .380" HOLE # 3 B/P B0206002AG5 DIA. DOUBLE HOLE:.167" PITCH:.770" INVOLVED PARTS ANGLE, DRAG, CTR BOX, PYLON (G05450606_`101) E.D: .360" SKIN, SIDE PANEL, AFT BARREL, LH (G05363430_`109) E.D: NOT ISSUE DOUBLER, SIDE PANEL, AFT BARREL, LH (G05363451_`105) E.D: .380" SEE ATTACHMENTS.</t>
+  </si>
+  <si>
+    <t>METHODS* AT RHS CTR BOX UPR BTWN 961 AND FS 981 EXIST QTY 6 HOLES LOW E.D ONLY ON DOUBLER, PYLON, AFT FUSE (G05361867_`102). B/P B0205020AD5 # HOLE DIA. HOLE G&amp;R CKS E.D DRAG E.D DOUBLER 1 .160" .258" .350" .260" 2 .160" .258" .360" .260" 3 .160" .258" .360" .290" 4 .160" .258" .360" .270" 5 .160" .258" .360" .260" 6 .160" .258" .360" .290" INVOLVED PARTS: ANGLE, DRAG, CTR BOX, PYLON (G05450606_`102) SKIN, RH PANEL, AFT FUSE (G05362701_`105) DOUBLER, PYLON, AFT FUSE (G05361867_`102) SEE ATTACHMENTS.</t>
+  </si>
+  <si>
+    <t>METHODS* LOCATION: RHS CTR BOX LWR BTWN 981 AND FS 999 EXIST QTY 4 LOW E.D ONLY ON ANGLE, DRAG, CTR BOX, PYLON (G05450605_`102). B/P B0205020AD5 # HOLE DIA. HOLE ON SKIN DIA. HOLE ON DRAG DIA. HOLE ON FRAME DIA. HOLE ON STR 13 E.D DRAG 1 .160" .098" .098" .098" .290" 2 .130" .098" .098" N/A .280" 3 .130" .098" .098" N/A .280" 4 .130" .098" .098" N/A .250" INVOLVED PARTS: ANGLE, DRAG, CTR BOX, PYLON (G05450605_`102) E.D MIN:.250" SKIN, RH PANEL, AFT FUSE (G05362701_`105) E.D: NOT ISSUE STRINGER 13, AFT FUSE (G05362173_`102) E.D MIN:.360" FRAME, FS999.00, AFT FUSE (G05362370_`106) E.D:.380" SEE ATTACHMENTS.</t>
+  </si>
+  <si>
+    <t>METHOD* DURING INSTALATION AT CATWALK FWD, ASSY G05365001_`001, THERE ARE TAPER GAP CONDITION MAX 0.012", BTWN INTERCOSTAL FWD PANEL, CATWALK (G05365068_`101 AND _`102) AND FRAME, FS981.50 AFT FUSE LOWER STGR 26_`27 LH_`RH. GAP AS FOLLOWS: ZONE A G05365068_`101 TAPER GAP 0.600" _` 0.008â LENGTH 0.700â ZONE B G05365068_`102 TAPER GAP 0.600" _` 0.012" LENGTH 0.600â NOTE RNC REFERENCE Q321002426 SEE THE ATTACHMENT FOR DETAILS</t>
+  </si>
+  <si>
+    <t>METHODS* REFERENCE NCR: 70096 Q321005151 70110 Q321011372 70097 Q321005155 70111 Q321012133 70098 Q321005156 70112 Q321012940 70099 Q321006285 70113 Q321013321 70100 Q321006361 70101 Q321006917 70102 Q321007293 70103 Q321007986 70104 Q321008392 70105 Q321009060 70106 Q321009417 70107 Q321009879 70108 Q321010424 70109 Q321010821 AT FS 1050_`1080, CANTED FRAME LHS, THERE ARE QTY (5) CLAMPS ON HARNESS G09171071_`005 WITH MORE THAN 5 TURNS OF FIBER GLASS TAPE UNDER THE SADDLE CLAMPS, THIS CONDITION DOES NOT MEET THE BAPS 145_`212 (ONLY 5 TURNS ALLOWED) PN: B0305064_`02PH16HC CLAMP, SADDLE QTY 5 SEE ATTACHMENTS AS REFERENCE.</t>
+  </si>
+  <si>
+    <t>METHODS* REFERENCE NCR'S 70096 Q321005151 70110 Q321011372 70097 Q321005155 70111 Q321012133 70098 Q321005156 70112 Q321012940 70098 Q321006285 70113 Q321013321 70100 Q321006361 70101 Q321006917 70102 Q321007293 70103 Q321007986 70104 Q321008392 70105 Q321009060 70106 Q321009417 70107 Q321009879 70108 Q321010424 70109 Q321010821 AT FS 981_`999 STGR 11_`12, LHS AND RHS, THERE ARE QTY (2) SADDLE CLAMPS WITH MORE THAN 5 TURNS OF FIBER GLASS TAPE, THAT CONDITION DOES NOT MEET THE BAPS 145_`212 (MAXIMUM ALLOWED 5 TURNS OF FIBER GLASS TAPE) PN: B0305064_`02PH14HC SADDLE, CLAMP QTY 2 (1 LHS AND 1 RHS) SEE ATTACHMENT AS REFERENCE</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1034,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,291 +1077,262 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44421</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>70121</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44420</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>70122</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44421</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>70118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44420</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>70122</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44419</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
-        <v>44420</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
       <c r="F4">
-        <v>70122</v>
+        <v>70117</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>70117</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
-      </c>
-      <c r="F5">
-        <v>70120</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>70116</v>
+        <v>70117</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>70118</v>
+        <v>70116</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44421</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>70114</v>
+      </c>
+      <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44420</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>70118</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44421</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>70114</v>
+      </c>
+      <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>70117</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44419</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>70117</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
